--- a/Result/Orbit/Service/CHN.xlsx
+++ b/Result/Orbit/Service/CHN.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>22.30837564817022</v>
+        <v>22.40260802547945</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>22.71406745641086</v>
+        <v>22.58455044464443</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>22.59369102710226</v>
+        <v>22.76380054050601</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2032539894927</v>
+        <v>22.45529118473462</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>25.52931556625333</v>
+        <v>23.18202570931716</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>29.35332018542419</v>
+        <v>26.15360699515935</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>29.84707434646617</v>
+        <v>31.5380315109235</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>30.36075740362833</v>
+        <v>30.9700755217056</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>31.23777118769934</v>
+        <v>30.87000384175902</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>32.8924312398331</v>
+        <v>31.85190602030324</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>32.38277311021145</v>
+        <v>33.71196919296365</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>34.478536877422</v>
+        <v>32.76882462141802</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>35.55580571533227</v>
+        <v>35.33726183894258</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>34.51599613052345</v>
+        <v>36.46648841434902</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>34.36265612039433</v>
+        <v>34.6563430101305</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>33.65293801156184</v>
+        <v>34.24714886399443</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>33.57027126834449</v>
+        <v>33.53264159522769</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>35.00567727061917</v>
+        <v>33.47443973113305</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>37.04332902280985</v>
+        <v>35.31200460212436</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>38.57534808943312</v>
+        <v>38.11817557973488</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>39.78765516702887</v>
+        <v>39.77423868692743</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>41.22312630868009</v>
+        <v>40.71241740106048</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>42.24794475438896</v>
+        <v>42.1063745608991</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>42.0282161856089</v>
+        <v>42.98736009176326</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>41.18314016648829</v>
+        <v>42.27932887188689</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>41.33592591678994</v>
+        <v>41.0176865971545</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>41.81684190683736</v>
+        <v>41.29218331636955</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>42.86966500939599</v>
+        <v>41.95469474022352</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>42.85977979077759</v>
+        <v>43.61227754905205</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>44.40666719932563</v>
+        <v>43.29681502985203</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>44.17699192151338</v>
+        <v>44.96442657410483</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>44.29305673463117</v>
+        <v>44.45753572024453</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>45.46330538759899</v>
+        <v>44.41378057196727</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>46.88040150152828</v>
+        <v>46.169809807999</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>48.27094049434601</v>
+        <v>47.26450257083691</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>50.77164514848277</v>
+        <v>49.25291688163185</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>52.3620909629531</v>
+        <v>52.26995613870412</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -874,50 +874,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>52.36209095302308</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>53.44636252109397</v>
+      </c>
+      <c r="C2" t="n">
+        <v>51.74163601381737</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.60677854578284</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>52.36209095302308</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>54.39384564473868</v>
+      </c>
+      <c r="C3" t="n">
+        <v>51.53415972090429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58.60686544172187</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>52.36209095302308</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>54.84261500399597</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50.68793360244929</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.85093653538687</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>52.36209095302308</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>55.39624301278303</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50.16460284749616</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.81397662220439</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>52.36209095302308</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>55.53943831744677</v>
+      </c>
+      <c r="C6" t="n">
+        <v>49.45505813312721</v>
+      </c>
+      <c r="D6" t="n">
+        <v>63.11693893976776</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -965,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>22.30837564817022</v>
+        <v>22.23185351468783</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>22.71406745641086</v>
+        <v>22.93084593710457</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>22.59369102710226</v>
+        <v>23.00407716957466</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2032539894927</v>
+        <v>22.51934974576445</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>25.52931556625333</v>
+        <v>23.54773102692617</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>29.35332018542419</v>
+        <v>26.6625901180566</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>29.84707434646617</v>
+        <v>31.68977496063155</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>30.36075740362833</v>
+        <v>31.06651081663909</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>31.23777118769934</v>
+        <v>30.89493690540078</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>32.8924312398331</v>
+        <v>31.83082850493576</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>32.38277311021145</v>
+        <v>33.71973627032276</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>34.478536877422</v>
+        <v>32.60922631128152</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>35.55580571533227</v>
+        <v>35.10025439127865</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>34.51599613052345</v>
+        <v>36.10627881464723</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>34.36265612039433</v>
+        <v>34.53207847593246</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>33.65293801156184</v>
+        <v>34.21083688068587</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>33.57027126834449</v>
+        <v>33.27137095011145</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>35.00567727061917</v>
+        <v>33.194798709464</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>37.04332902280985</v>
+        <v>35.79374941648261</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>38.57534808943312</v>
+        <v>38.00841328319669</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>39.78765516702887</v>
+        <v>39.72831415469703</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>41.22312630868009</v>
+        <v>40.76000477961982</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1185,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>42.24794475438896</v>
+        <v>42.14464511468623</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1195,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>42.0282161856089</v>
+        <v>43.08547081247755</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1205,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>41.18314016648829</v>
+        <v>42.1165860678325</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1215,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>41.33592591678994</v>
+        <v>40.95253821008177</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1225,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>41.81684190683736</v>
+        <v>41.12052296018278</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1235,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>42.86966500939599</v>
+        <v>41.9156802245397</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1245,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>42.85977979077759</v>
+        <v>43.51213175832142</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1255,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>44.40666719932563</v>
+        <v>43.10004057787125</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1265,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>44.17699192151338</v>
+        <v>45.16248781480404</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1275,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>44.29305673463117</v>
+        <v>44.61165937253533</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1285,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>45.46330538759899</v>
+        <v>44.56190167138512</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1295,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>46.88040150152828</v>
+        <v>46.26558786347873</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1305,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>48.27094049434601</v>
+        <v>47.65640415067423</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1315,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>50.77164514848277</v>
+        <v>49.04230973217409</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1325,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>52.3620909629531</v>
+        <v>52.12769364652292</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1335,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>52.68473653423992</v>
+        <v>53.78775872375883</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1345,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>53.26996792341521</v>
+        <v>53.58089982478914</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1355,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>54.26890426636677</v>
+        <v>53.74769085166523</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1365,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>54.45856070688963</v>
+        <v>54.82465516284839</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1375,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>53.30909789775842</v>
+        <v>54.78844668896041</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1426,50 +1446,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>53.30909790750911</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>52.81361707545436</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50.98322424899631</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.73344184190739</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>53.30909790750911</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>52.32331084202691</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49.81359376907988</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.2683335581986</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>53.30909790750911</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>52.05670864868651</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48.34199802826048</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.32563675713946</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>53.30909790750911</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>51.74226646649853</v>
+      </c>
+      <c r="C5" t="n">
+        <v>46.98163904630613</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.975314967336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>53.30909790750911</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>51.09259482238348</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45.37889948441176</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.06296145259714</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
